--- a/static/excel/佣金计算模版.xlsx
+++ b/static/excel/佣金计算模版.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whw/ken/crm/我们的crm资料/prd文档/业绩管理/模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pure/Documents/code/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="3420" windowWidth="28800" windowHeight="16760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,15 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$4:$AX$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$AX$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -663,14 +666,14 @@
   </si>
   <si>
     <t>工号</t>
-    <rPh sb="0" eb="88">
+    <rPh sb="0" eb="2">
       <t>chan p</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <rPh sb="0" eb="88">
+    <rPh sb="0" eb="2">
       <t>jing zh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,14 +722,14 @@
   </si>
   <si>
     <t>李四</t>
-    <rPh sb="0" eb="28">
+    <rPh sb="0" eb="2">
       <t>zhang san</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财富公司</t>
-    <rPh sb="0" eb="79">
+    <rPh sb="0" eb="4">
       <t>cai fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,8 +773,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -810,7 +813,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -820,38 +823,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,23 +858,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,13 +1187,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU5"/>
+  <dimension ref="A1:BU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="12" width="16.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.83203125" style="1" customWidth="1"/>
@@ -1261,610 +1239,685 @@
     <col min="74" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
     </row>
-    <row r="2" spans="1:73" ht="19">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:73" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
     </row>
-    <row r="3" spans="1:73" ht="20" thickBot="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:73" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AR7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AT7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="AU7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AV4" s="5" t="s">
+      <c r="AV7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AW4" s="7" t="s">
+      <c r="AW7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AX4" s="5" t="s">
+      <c r="AX7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AY4" s="5" t="s">
+      <c r="AY7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AZ4" s="5" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BA4" s="5" t="s">
+      <c r="BA7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BB4" s="5" t="s">
+      <c r="BB7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BC4" s="5" t="s">
+      <c r="BC7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BD4" s="5" t="s">
+      <c r="BD7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BE4" s="5" t="s">
+      <c r="BE7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BF4" s="5" t="s">
+      <c r="BF7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BG4" s="5" t="s">
+      <c r="BG7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BH4" s="5" t="s">
+      <c r="BH7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BI4" s="5" t="s">
+      <c r="BI7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="5" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BK4" s="5" t="s">
+      <c r="BK7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BL4" s="5" t="s">
+      <c r="BL7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BM4" s="5" t="s">
+      <c r="BM7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BN4" s="5" t="s">
+      <c r="BN7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BO4" s="5" t="s">
+      <c r="BO7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="BP4" s="5" t="s">
+      <c r="BP7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BQ4" s="5" t="s">
+      <c r="BQ7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BR4" s="5" t="s">
+      <c r="BR7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BS4" s="5" t="s">
+      <c r="BS7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BT4" s="5" t="s">
+      <c r="BT7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BU4" s="5" t="s">
+      <c r="BU7" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AO8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AU5" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="2" t="s">
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="BA8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BB8" s="2">
         <v>3</v>
       </c>
-      <c r="BC5" s="2" t="s">
+      <c r="BC8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BD8" s="2">
         <v>0.6</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BE8" s="2">
         <v>1.4</v>
       </c>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2" t="s">
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BO5" s="2" t="s">
+      <c r="BO8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="BP8" s="2">
         <v>0.5</v>
       </c>
-      <c r="BQ5" s="2">
+      <c r="BQ8" s="2">
         <v>0.5</v>
       </c>
-      <c r="BR5" s="2">
+      <c r="BR8" s="2">
         <v>100</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="BS8" s="2">
         <v>0.2</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="BT8" s="2">
         <v>0.8</v>
       </c>
-      <c r="BU5" s="2"/>
+      <c r="BU8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1874,19 +1927,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G6:G1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3 L6:L1048576">
       <formula1>"在职,离职,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT1:AT1048576 BO1:BO1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT1:AT3 AT6:AT1048576 BO1:BO3 BO6:BO1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC1:BC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC1:BC3 BC6:BC1048576">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY1:AY1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY1:AY3 AY6:AY1048576">
       <formula1>"人民币,美元"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1903,24 +1956,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1939,37 +1992,37 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
